--- a/python/two/nn2 SD t1=6 t2=5 δ=0.5.xlsx
+++ b/python/two/nn2 SD t1=6 t2=5 δ=0.5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +441,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Fitted 1</t>
+          <t>Fit (clean)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Fit (noise)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
@@ -463,12 +473,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>5.98e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.86e-06</t>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5.96e+00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.0716</t>
         </is>
       </c>
     </row>
@@ -485,12 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.00e+00</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.000131</t>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5.07e+00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.59</t>
         </is>
       </c>
     </row>
@@ -507,12 +537,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.00e+00</t>
+          <t>9.99e-01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.000131</t>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5.09e+00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.6</t>
         </is>
       </c>
     </row>
@@ -529,12 +569,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.00e-01</t>
+          <t>7.25e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.24e-05</t>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.32e-01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.347</t>
         </is>
       </c>
     </row>
@@ -556,7 +606,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.8e-10</t>
+          <t>5.3e-06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.00e+00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.51e-06</t>
         </is>
       </c>
     </row>
